--- a/data/trans_dic/P70A_R_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P70A_R_2023-Clase-trans_dic.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.1461970686590978</v>
+        <v>0.1461970686590977</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.1638448710225597</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.08227636956169912</v>
+        <v>0.08049502926648842</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1004985950062204</v>
+        <v>0.1078276145276892</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1100796782528176</v>
+        <v>0.1117389093676795</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2315782770848583</v>
+        <v>0.2351294561534518</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2260379379383612</v>
+        <v>0.2381014000036913</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.206417686660961</v>
+        <v>0.205112699130831</v>
       </c>
     </row>
     <row r="7">
@@ -622,7 +622,7 @@
         <v>0.2395260943060167</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.16360035258776</v>
+        <v>0.1636003525877599</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.2000543051140865</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1416506874227058</v>
+        <v>0.140840434160687</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1024498080181322</v>
+        <v>0.09584465351085127</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.142384968628877</v>
+        <v>0.1447221703982436</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3502956579193479</v>
+        <v>0.3483698994441146</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.26628795663915</v>
+        <v>0.264787770050481</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2771704690104589</v>
+        <v>0.2794762443343241</v>
       </c>
     </row>
     <row r="10">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.1903002540054017</v>
+        <v>0.1903002540054016</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.2688773145969457</v>
+        <v>0.2688773145969458</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.2062520759620139</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1054832785559939</v>
+        <v>0.09977611425436893</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1245760451353511</v>
+        <v>0.118283724497904</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1236951275649016</v>
+        <v>0.127134755626979</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2991021296463004</v>
+        <v>0.3052812963294441</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.500334039019638</v>
+        <v>0.4851016811330471</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3146023961125858</v>
+        <v>0.3061116977527605</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.3745262136683963</v>
+        <v>0.3745262136683964</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.2377248308816918</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.3034725707750857</v>
+        <v>0.3034725707750856</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.275331818277586</v>
+        <v>0.2702914792694587</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1752365095043886</v>
+        <v>0.1758824687581267</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2459386842067394</v>
+        <v>0.2492517529250016</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4776969710894574</v>
+        <v>0.4789361409052817</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3138316619633337</v>
+        <v>0.3112403475828086</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3675099571677596</v>
+        <v>0.3698827915396591</v>
       </c>
     </row>
     <row r="16">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.2390539591871296</v>
+        <v>0.2390539591871295</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.3603733810541956</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.139125004460462</v>
+        <v>0.132750301975127</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2650008631706721</v>
+        <v>0.2743661519975998</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2312819803791827</v>
+        <v>0.2266039374056272</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3722764524747585</v>
+        <v>0.3689730826451823</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4624456912269962</v>
+        <v>0.4624939406673785</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3822364858131078</v>
+        <v>0.3955572690269045</v>
       </c>
     </row>
     <row r="19">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2038907520332428</v>
+        <v>0.1989174521212846</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1901044735238293</v>
+        <v>0.1903792355522171</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2080773470286291</v>
+        <v>0.2121379911035415</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2963279726891368</v>
+        <v>0.2984907294243292</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2662527847866989</v>
+        <v>0.2700273553475993</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.267596929147161</v>
+        <v>0.2726229305487854</v>
       </c>
     </row>
     <row r="22">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>8145</v>
+        <v>7969</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>10410</v>
+        <v>11169</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>22299</v>
+        <v>22636</v>
       </c>
     </row>
     <row r="7">
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>22926</v>
+        <v>23277</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>23413</v>
+        <v>24662</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>41815</v>
+        <v>41551</v>
       </c>
     </row>
     <row r="8">
@@ -1094,13 +1094,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>10281</v>
+        <v>10222</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>8052</v>
+        <v>7532</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>21524</v>
+        <v>21878</v>
       </c>
     </row>
     <row r="11">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>25425</v>
+        <v>25285</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>20928</v>
+        <v>20810</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>41900</v>
+        <v>42249</v>
       </c>
     </row>
     <row r="12">
@@ -1166,13 +1166,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>6472</v>
+        <v>6122</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1947</v>
+        <v>1849</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>9522</v>
+        <v>9787</v>
       </c>
     </row>
     <row r="15">
@@ -1183,13 +1183,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>18351</v>
+        <v>18730</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>7819</v>
+        <v>7581</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>24219</v>
+        <v>23565</v>
       </c>
     </row>
     <row r="16">
@@ -1238,13 +1238,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>32467</v>
+        <v>31872</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>22331</v>
+        <v>22413</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>60342</v>
+        <v>61154</v>
       </c>
     </row>
     <row r="19">
@@ -1255,13 +1255,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>56329</v>
+        <v>56475</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>39993</v>
+        <v>39663</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>90169</v>
+        <v>90751</v>
       </c>
     </row>
     <row r="20">
@@ -1310,13 +1310,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>9236</v>
+        <v>8813</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>19429</v>
+        <v>20115</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>32311</v>
+        <v>31657</v>
       </c>
     </row>
     <row r="23">
@@ -1327,13 +1327,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>24715</v>
+        <v>24496</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>33904</v>
+        <v>33908</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>53400</v>
+        <v>55261</v>
       </c>
     </row>
     <row r="24">
@@ -1382,13 +1382,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>85071</v>
+        <v>82996</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>75765</v>
+        <v>75875</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>169746</v>
+        <v>173059</v>
       </c>
     </row>
     <row r="27">
@@ -1399,13 +1399,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>123640</v>
+        <v>124542</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>106114</v>
+        <v>107618</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>218301</v>
+        <v>222401</v>
       </c>
     </row>
     <row r="28">
